--- a/src/test/resources/Lms_test_data/LMS_API_Data.xlsx
+++ b/src/test/resources/Lms_test_data/LMS_API_Data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5215F63E-936C-41FB-AA8B-7F4746F12AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{011D1BA9-792B-4B30-A35C-298C599A8707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Get" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,9 @@
     <sheet name="Delete" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M9"/>
+  <oleSize ref="A1:N7"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>ProgramId</t>
   </si>
@@ -60,15 +60,6 @@
   </si>
   <si>
     <t>new Course</t>
-  </si>
-  <si>
-    <t>12922</t>
-  </si>
-  <si>
-    <t>12923</t>
-  </si>
-  <si>
-    <t>12924</t>
   </si>
   <si>
     <t>12959</t>
@@ -84,7 +75,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -406,13 +396,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="1" max="1" width="10.81640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -456,8 +446,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.6328125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.1796875" collapsed="true"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.1796875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -519,9 +509,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.26953125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.6328125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.453125" collapsed="true"/>
+    <col min="1" max="1" width="10.26953125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.6328125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -540,7 +530,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -554,7 +544,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -568,7 +558,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -589,13 +579,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5318F695-B6E9-436A-BB0C-355D57D739FC}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.08984375" collapsed="true"/>
+    <col min="1" max="1" width="14.08984375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -605,17 +595,17 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:1">
